--- a/Programming III/Copy of ct326_assignment1_marking_and_feedback.xlsx
+++ b/Programming III/Copy of ct326_assignment1_marking_and_feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smitesh\Documents\Football Data Analysis\Masters-Assignment-Data\Programming III\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E280E9DE-B0BE-4E39-91BC-84B603458CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458C9434-8B35-4D1A-887B-D2575993EADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="196">
   <si>
     <t>Last Name</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>In class Post you needed to add a parameter for a empty user class that you needed to define you have used a String instead of creating a class. You also had to create a exception that is thrown for invalid timestamps you have used a predefined exception instead. Getters and Setters have been defined perfectly, You have used UUID class object for generating Id, but in problem statement you had to use a static class variable that is incremented everytime a object is needed. In test file you have just checked variables by printing data, you needed to use assert functions in JUnit like AssertEquals(), AssertThrows() to check these variables instead of printing and manually checking them.</t>
+  </si>
+  <si>
+    <t>In Forum.java you had to defined two constructors one which uses default timestamp and one which accepts a user defined timestamp that should be scheduled later than the currect time and throw an exception in case it isnt. Futhermore, you have not used a unique id for you posts that is assigned to every object of the forum class. Also for initializing the object of Forum class you needed to pass a paramenter of an Empty class user, you have used a String object for author instead. Test cases of checking exception, toString() method, post Id are missing.</t>
   </si>
 </sst>
 </file>
@@ -1180,12 +1183,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1585,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2590,7 +2592,7 @@
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -2609,12 +2611,34 @@
       <c r="F30" t="s">
         <v>164</v>
       </c>
-      <c r="H30"/>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
       <c r="N30">
         <f>SUM(Table1[[#This Row],[Part 1 (5 marks)]:[Part 9 (3 marks)]])</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -4206,8 +4230,8 @@
       </c>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N84" s="2">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N84">
         <f>SUM(Table1[[#This Row],[Part 1 (5 marks)]:[Part 9 (3 marks)]])</f>
         <v>0</v>
       </c>

--- a/Programming III/Copy of ct326_assignment1_marking_and_feedback.xlsx
+++ b/Programming III/Copy of ct326_assignment1_marking_and_feedback.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smitesh\Documents\Football Data Analysis\Masters-Assignment-Data\Programming III\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458C9434-8B35-4D1A-887B-D2575993EADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D726087A-48C8-46F5-A1B8-B789FE8CF0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="197">
   <si>
     <t>Last Name</t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>In Forum.java you had to defined two constructors one which uses default timestamp and one which accepts a user defined timestamp that should be scheduled later than the currect time and throw an exception in case it isnt. Futhermore, you have not used a unique id for you posts that is assigned to every object of the forum class. Also for initializing the object of Forum class you needed to pass a paramenter of an Empty class user, you have used a String object for author instead. Test cases of checking exception, toString() method, post Id are missing.</t>
+  </si>
+  <si>
+    <t>For this assignment, you had to create two constructors one with default timestamp and one with user defined.  In the only constructore you defined in your code you are not initializing the timestamp in constructor. Implmentation of postId is wrong you had to set a static int variable as id and increment it for every ForumPosts. checking of invalid timestamps had to be done by throwing an exception. Testing part of  the project using Junit is missig.</t>
   </si>
 </sst>
 </file>
@@ -1587,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="L34" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3222,7 +3225,7 @@
       </c>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="62" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -3241,12 +3244,34 @@
       <c r="F50" t="s">
         <v>164</v>
       </c>
-      <c r="H50"/>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
       <c r="N50">
         <f>SUM(Table1[[#This Row],[Part 1 (5 marks)]:[Part 9 (3 marks)]])</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
